--- a/meetings_dumped/timmermans.xlsx
+++ b/meetings_dumped/timmermans.xlsx
@@ -7711,7 +7711,7 @@
       </c>
       <c r="D172" s="1129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Decarbonisation; chemical strategy for sustainability</t>
+          <t xml:space="preserve">Decarbonisation; chemicals strategy for sustainability </t>
         </is>
       </c>
     </row>
